--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,43 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sudoku_Bitmask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1244034E-240E-4B68-92DE-934A39734DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889DB45-57EC-4F3B-B9E4-A9895F6E5F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>y=(i/9)-1</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>y=(</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>9^mod</t>
+    <t>Z</t>
   </si>
   <si>
-    <t>Z</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>0,0,8,0,0,0,9,0</t>
+  </si>
+  <si>
+    <t>0,0,8,3,0,0,9,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +179,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="_Aviano"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +384,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -556,6 +598,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -601,17 +811,210 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,375 +1369,4468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="37" width="2.85546875" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="30">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="AD1" s="30">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="30">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="30">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="30">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="30">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="30">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22">
+        <v>5</v>
+      </c>
+      <c r="G2" s="22">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22">
+        <v>7</v>
+      </c>
+      <c r="I2" s="22">
+        <v>8</v>
+      </c>
+      <c r="J2" s="22">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23">
+        <f>MOD((L2-1),9)+1</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="24">
+        <f>QUOTIENT((L2-1),9)+1</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="25">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P33" si="0">QUOTIENT(M2-1,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>QUOTIENT(N2-1,3)*3</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>(P2+Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <f>R2+1</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <f>O2-S2</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>MOD(V2,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>2</v>
+      </c>
+      <c r="D3" s="32">
+        <v>3</v>
+      </c>
+      <c r="E3" s="43">
+        <v>4</v>
+      </c>
+      <c r="F3" s="32">
+        <v>5</v>
+      </c>
+      <c r="G3" s="40">
+        <v>6</v>
+      </c>
+      <c r="H3" s="32">
+        <v>7</v>
+      </c>
+      <c r="I3" s="32">
+        <v>8</v>
+      </c>
+      <c r="J3" s="33">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="23">
+        <f t="shared" ref="M3:M66" si="1">MOD((L3-1),9)+1</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="24">
+        <f t="shared" ref="N3:N66" si="2">QUOTIENT((L3-1),9)+1</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q66" si="3">QUOTIENT(N3-1,3)*3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R66" si="4">(P3+Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S66" si="5">R3+1</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T66" si="6">O3-S3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <f>MOD(V3,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34">
+        <v>10</v>
+      </c>
+      <c r="C4" s="35">
+        <v>11</v>
+      </c>
+      <c r="D4" s="35">
+        <v>12</v>
+      </c>
+      <c r="E4" s="44">
+        <v>13</v>
+      </c>
+      <c r="F4" s="35">
+        <v>14</v>
+      </c>
+      <c r="G4" s="41">
+        <v>15</v>
+      </c>
+      <c r="H4" s="35">
+        <v>16</v>
+      </c>
+      <c r="I4" s="35">
+        <v>17</v>
+      </c>
+      <c r="J4" s="36">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W11" si="7">MOD(V4,3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34">
+        <v>19</v>
+      </c>
+      <c r="C5" s="35">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35">
+        <v>21</v>
+      </c>
+      <c r="E5" s="44">
+        <v>22</v>
+      </c>
+      <c r="F5" s="35">
+        <v>23</v>
+      </c>
+      <c r="G5" s="41">
+        <v>24</v>
+      </c>
+      <c r="H5" s="35">
+        <v>25</v>
+      </c>
+      <c r="I5" s="35">
+        <v>26</v>
+      </c>
+      <c r="J5" s="36">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="46">
+        <v>28</v>
+      </c>
+      <c r="C6" s="47">
+        <v>29</v>
+      </c>
+      <c r="D6" s="47">
+        <v>30</v>
+      </c>
+      <c r="E6" s="48">
+        <v>31</v>
+      </c>
+      <c r="F6" s="47">
+        <v>32</v>
+      </c>
+      <c r="G6" s="49">
+        <v>33</v>
+      </c>
+      <c r="H6" s="47">
+        <v>34</v>
+      </c>
+      <c r="I6" s="47">
+        <v>35</v>
+      </c>
+      <c r="J6" s="50">
+        <v>36</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="25">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34">
+        <v>37</v>
+      </c>
+      <c r="C7" s="35">
+        <v>38</v>
+      </c>
+      <c r="D7" s="35">
+        <v>39</v>
+      </c>
+      <c r="E7" s="44">
+        <v>40</v>
+      </c>
+      <c r="F7" s="35">
+        <v>41</v>
+      </c>
+      <c r="G7" s="41">
+        <v>42</v>
+      </c>
+      <c r="H7" s="35">
+        <v>43</v>
+      </c>
+      <c r="I7" s="35">
+        <v>44</v>
+      </c>
+      <c r="J7" s="36">
+        <v>45</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="25">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="51">
+        <v>46</v>
+      </c>
+      <c r="C8" s="52">
+        <v>47</v>
+      </c>
+      <c r="D8" s="52">
+        <v>48</v>
+      </c>
+      <c r="E8" s="53">
+        <v>49</v>
+      </c>
+      <c r="F8" s="52">
+        <v>50</v>
+      </c>
+      <c r="G8" s="54">
+        <v>51</v>
+      </c>
+      <c r="H8" s="52">
+        <v>52</v>
+      </c>
+      <c r="I8" s="52">
+        <v>53</v>
+      </c>
+      <c r="J8" s="55">
+        <v>54</v>
+      </c>
+      <c r="L8" s="5">
+        <v>7</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="25">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34">
+        <v>55</v>
+      </c>
+      <c r="C9" s="35">
+        <v>56</v>
+      </c>
+      <c r="D9" s="35">
+        <v>57</v>
+      </c>
+      <c r="E9" s="44">
+        <v>58</v>
+      </c>
+      <c r="F9" s="35">
+        <v>59</v>
+      </c>
+      <c r="G9" s="41">
+        <v>60</v>
+      </c>
+      <c r="H9" s="35">
+        <v>61</v>
+      </c>
+      <c r="I9" s="35">
+        <v>62</v>
+      </c>
+      <c r="J9" s="36">
+        <v>63</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="25">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34">
+        <v>64</v>
+      </c>
+      <c r="C10" s="35">
+        <v>65</v>
+      </c>
+      <c r="D10" s="35">
+        <v>66</v>
+      </c>
+      <c r="E10" s="44">
+        <v>67</v>
+      </c>
+      <c r="F10" s="35">
+        <v>68</v>
+      </c>
+      <c r="G10" s="41">
+        <v>69</v>
+      </c>
+      <c r="H10" s="35">
+        <v>70</v>
+      </c>
+      <c r="I10" s="35">
+        <v>71</v>
+      </c>
+      <c r="J10" s="36">
+        <v>72</v>
+      </c>
+      <c r="L10" s="5">
+        <v>9</v>
+      </c>
+      <c r="M10" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37">
+        <v>73</v>
+      </c>
+      <c r="C11" s="38">
+        <v>74</v>
+      </c>
+      <c r="D11" s="38">
+        <v>75</v>
+      </c>
+      <c r="E11" s="45">
+        <v>76</v>
+      </c>
+      <c r="F11" s="38">
+        <v>77</v>
+      </c>
+      <c r="G11" s="42">
+        <v>78</v>
+      </c>
+      <c r="H11" s="38">
+        <v>79</v>
+      </c>
+      <c r="I11" s="38">
+        <v>80</v>
+      </c>
+      <c r="J11" s="39">
         <v>81</v>
       </c>
-      <c r="N2">
+      <c r="L11" s="5">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="M11" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>11</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4</v>
+      </c>
+      <c r="J13" s="8">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>12</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="25">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>9</v>
+      </c>
+      <c r="H14" s="16">
+        <v>6</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>13</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="25">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>6</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4</v>
+      </c>
+      <c r="H15" s="19">
+        <v>9</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>14</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="25">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>15</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="25">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>8</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4</v>
+      </c>
+      <c r="F17" s="10">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>16</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17" s="25">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>17</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="25">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>9</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>18</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O19" s="25">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>5</v>
+      </c>
+      <c r="L20" s="5">
+        <v>19</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O20" s="25">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>7</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>20</v>
+      </c>
+      <c r="M21" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="5">
+        <v>21</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L23" s="5">
+        <v>22</v>
+      </c>
+      <c r="M23" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O23" s="25">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3</v>
+      </c>
+      <c r="E24" s="22">
+        <v>4</v>
+      </c>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22">
+        <v>6</v>
+      </c>
+      <c r="H24" s="22">
+        <v>7</v>
+      </c>
+      <c r="I24" s="22">
+        <v>8</v>
+      </c>
+      <c r="J24" s="22">
+        <v>9</v>
+      </c>
+      <c r="L24" s="5">
+        <v>23</v>
+      </c>
+      <c r="M24" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O24" s="25">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>1</v>
+      </c>
+      <c r="B25" s="31">
+        <v>1</v>
+      </c>
+      <c r="C25" s="32">
+        <v>2</v>
+      </c>
+      <c r="D25" s="32">
+        <v>3</v>
+      </c>
+      <c r="E25" s="43">
+        <v>4</v>
+      </c>
+      <c r="F25" s="32">
+        <v>5</v>
+      </c>
+      <c r="G25" s="40">
+        <v>6</v>
+      </c>
+      <c r="H25" s="32">
+        <v>7</v>
+      </c>
+      <c r="I25" s="32">
+        <v>8</v>
+      </c>
+      <c r="J25" s="33">
+        <v>9</v>
+      </c>
+      <c r="L25" s="5">
+        <v>24</v>
+      </c>
+      <c r="M25" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O25" s="25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>2</v>
+      </c>
+      <c r="B26" s="34">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C26" s="35">
         <v>11</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D26" s="35">
         <v>12</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E26" s="44">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F26" s="35">
         <v>14</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G26" s="41">
         <v>15</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H26" s="35">
         <v>16</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I26" s="35">
         <v>17</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J26" s="36">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="L26" s="5">
+        <v>25</v>
+      </c>
+      <c r="M26" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="25">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>3</v>
+      </c>
+      <c r="B27" s="34">
         <v>19</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C27" s="35">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D27" s="35">
         <v>21</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E27" s="44">
         <v>22</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F27" s="35">
         <v>23</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G27" s="41">
         <v>24</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H27" s="35">
         <v>25</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I27" s="35">
         <v>26</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J27" s="36">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="L27" s="5">
+        <v>26</v>
+      </c>
+      <c r="M27" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O27" s="25">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>4</v>
+      </c>
+      <c r="B28" s="46">
         <v>28</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C28" s="47">
         <v>29</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D28" s="47">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E28" s="48">
         <v>31</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F28" s="47">
         <v>32</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G28" s="49">
         <v>33</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H28" s="47">
         <v>34</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I28" s="47">
         <v>35</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J28" s="50">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="L28" s="5">
+        <v>27</v>
+      </c>
+      <c r="M28" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N28" s="24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O28" s="25">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>5</v>
+      </c>
+      <c r="B29" s="34">
         <v>37</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C29" s="35">
         <v>38</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D29" s="35">
         <v>39</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E29" s="44">
         <v>40</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F29" s="35">
         <v>41</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G29" s="41">
         <v>42</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H29" s="35">
         <v>43</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I29" s="35">
         <v>44</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J29" s="36">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="K29" s="2"/>
+      <c r="L29" s="26">
+        <v>28</v>
+      </c>
+      <c r="M29" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O29" s="29">
+        <v>4</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>6</v>
+      </c>
+      <c r="B30" s="51">
         <v>46</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C30" s="52">
         <v>47</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D30" s="52">
         <v>48</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E30" s="53">
         <v>49</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F30" s="52">
         <v>50</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G30" s="54">
         <v>51</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H30" s="52">
         <v>52</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I30" s="52">
         <v>53</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J30" s="55">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="L30" s="5">
+        <v>29</v>
+      </c>
+      <c r="M30" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O30" s="25">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>7</v>
+      </c>
+      <c r="B31" s="34">
         <v>55</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C31" s="35">
         <v>56</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D31" s="35">
         <v>57</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E31" s="44">
         <v>58</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F31" s="35">
         <v>59</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G31" s="41">
         <v>60</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H31" s="35">
         <v>61</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I31" s="35">
         <v>62</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J31" s="36">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="L31" s="5">
+        <v>30</v>
+      </c>
+      <c r="M31" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N31" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O31" s="25">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>8</v>
+      </c>
+      <c r="B32" s="34">
         <v>64</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C32" s="35">
         <v>65</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D32" s="35">
         <v>66</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E32" s="44">
         <v>67</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F32" s="35">
         <v>68</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G32" s="41">
         <v>69</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H32" s="35">
         <v>70</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I32" s="35">
         <v>71</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J32" s="36">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="L32" s="5">
+        <v>31</v>
+      </c>
+      <c r="M32" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N32" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O32" s="25">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B33" s="37">
         <v>73</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C33" s="38">
         <v>74</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D33" s="38">
         <v>75</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E33" s="45">
         <v>76</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F33" s="38">
         <v>77</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G33" s="42">
         <v>78</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H33" s="38">
         <v>79</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I33" s="38">
         <v>80</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J33" s="39">
         <v>81</v>
+      </c>
+      <c r="L33" s="5">
+        <v>32</v>
+      </c>
+      <c r="M33" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N33" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O33" s="25">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="5">
+        <v>33</v>
+      </c>
+      <c r="M34" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O34" s="25">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P65" si="8">QUOTIENT(M34-1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>7</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4</v>
+      </c>
+      <c r="J35" s="8">
+        <v>3</v>
+      </c>
+      <c r="L35" s="5">
+        <v>34</v>
+      </c>
+      <c r="M35" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N35" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O35" s="25">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>9</v>
+      </c>
+      <c r="H36" s="16">
+        <v>6</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>35</v>
+      </c>
+      <c r="M36" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N36" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O36" s="25">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>3</v>
+      </c>
+      <c r="B37" s="17">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <v>6</v>
+      </c>
+      <c r="F37" s="18">
+        <v>3</v>
+      </c>
+      <c r="G37" s="18">
+        <v>4</v>
+      </c>
+      <c r="H37" s="19">
+        <v>9</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>36</v>
+      </c>
+      <c r="M37" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N37" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O37" s="25">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10">
+        <v>4</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>37</v>
+      </c>
+      <c r="M38" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O38" s="25">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>8</v>
+      </c>
+      <c r="E39" s="16">
+        <v>4</v>
+      </c>
+      <c r="F39" s="10">
+        <v>6</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>38</v>
+      </c>
+      <c r="M39" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N39" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O39" s="25">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>6</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>8</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>5</v>
+      </c>
+      <c r="I40" s="18">
+        <v>3</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>39</v>
+      </c>
+      <c r="M40" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N40" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O40" s="25">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>7</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>7</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>9</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>40</v>
+      </c>
+      <c r="M41" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N41" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O41" s="25">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>8</v>
+      </c>
+      <c r="B42" s="9">
+        <v>9</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>5</v>
+      </c>
+      <c r="L42" s="5">
+        <v>41</v>
+      </c>
+      <c r="M42" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N42" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O42" s="25">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>9</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <v>7</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>4</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21">
+        <v>8</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5">
+        <v>42</v>
+      </c>
+      <c r="M43" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N43" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O43" s="25">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L44" s="5">
+        <v>43</v>
+      </c>
+      <c r="M44" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N44" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O44" s="25">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L45" s="5">
+        <v>44</v>
+      </c>
+      <c r="M45" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N45" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O45" s="25">
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L46" s="5">
+        <v>45</v>
+      </c>
+      <c r="M46" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N46" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O46" s="25">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L47" s="5">
+        <v>46</v>
+      </c>
+      <c r="M47" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O47" s="25">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L48" s="5">
+        <v>47</v>
+      </c>
+      <c r="M48" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N48" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O48" s="25">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L49" s="5">
+        <v>48</v>
+      </c>
+      <c r="M49" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N49" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O49" s="25">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L50" s="5">
+        <v>49</v>
+      </c>
+      <c r="M50" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N50" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O50" s="25">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L51" s="5">
+        <v>50</v>
+      </c>
+      <c r="M51" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N51" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O51" s="25">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L52" s="5">
+        <v>51</v>
+      </c>
+      <c r="M52" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N52" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O52" s="25">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L53" s="5">
+        <v>52</v>
+      </c>
+      <c r="M53" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N53" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O53" s="25">
+        <v>6</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L54" s="5">
+        <v>53</v>
+      </c>
+      <c r="M54" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N54" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O54" s="25">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L55" s="5">
+        <v>54</v>
+      </c>
+      <c r="M55" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N55" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O55" s="25">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L56" s="5">
+        <v>55</v>
+      </c>
+      <c r="M56" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O56" s="25">
+        <v>7</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="22">
+        <v>1</v>
+      </c>
+      <c r="C57" s="22">
+        <v>2</v>
+      </c>
+      <c r="D57" s="22">
+        <v>3</v>
+      </c>
+      <c r="E57" s="22">
+        <v>4</v>
+      </c>
+      <c r="F57" s="22">
+        <v>5</v>
+      </c>
+      <c r="G57" s="22">
+        <v>6</v>
+      </c>
+      <c r="H57" s="22">
+        <v>7</v>
+      </c>
+      <c r="I57" s="22">
+        <v>8</v>
+      </c>
+      <c r="J57" s="22">
+        <v>9</v>
+      </c>
+      <c r="L57" s="5">
+        <v>56</v>
+      </c>
+      <c r="M57" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N57" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O57" s="25">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>1</v>
+      </c>
+      <c r="B58" s="31">
+        <v>1</v>
+      </c>
+      <c r="C58" s="32">
+        <v>2</v>
+      </c>
+      <c r="D58" s="56">
+        <v>3</v>
+      </c>
+      <c r="E58" s="43">
+        <v>4</v>
+      </c>
+      <c r="F58" s="32">
+        <v>5</v>
+      </c>
+      <c r="G58" s="58">
+        <v>6</v>
+      </c>
+      <c r="H58" s="32">
+        <v>7</v>
+      </c>
+      <c r="I58" s="32">
+        <v>8</v>
+      </c>
+      <c r="J58" s="60">
+        <v>9</v>
+      </c>
+      <c r="L58" s="5">
+        <v>57</v>
+      </c>
+      <c r="M58" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N58" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O58" s="25">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>2</v>
+      </c>
+      <c r="B59" s="34">
+        <v>10</v>
+      </c>
+      <c r="C59" s="35">
+        <v>11</v>
+      </c>
+      <c r="D59" s="57">
+        <v>12</v>
+      </c>
+      <c r="E59" s="44">
+        <v>13</v>
+      </c>
+      <c r="F59" s="35">
+        <v>14</v>
+      </c>
+      <c r="G59" s="59">
+        <v>15</v>
+      </c>
+      <c r="H59" s="35">
+        <v>16</v>
+      </c>
+      <c r="I59" s="35">
+        <v>17</v>
+      </c>
+      <c r="J59" s="61">
+        <v>18</v>
+      </c>
+      <c r="L59" s="5">
+        <v>58</v>
+      </c>
+      <c r="M59" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N59" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O59" s="25">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>3</v>
+      </c>
+      <c r="B60" s="34">
+        <v>19</v>
+      </c>
+      <c r="C60" s="35">
+        <v>20</v>
+      </c>
+      <c r="D60" s="57">
+        <v>21</v>
+      </c>
+      <c r="E60" s="44">
+        <v>22</v>
+      </c>
+      <c r="F60" s="35">
+        <v>23</v>
+      </c>
+      <c r="G60" s="59">
+        <v>24</v>
+      </c>
+      <c r="H60" s="35">
+        <v>25</v>
+      </c>
+      <c r="I60" s="35">
+        <v>26</v>
+      </c>
+      <c r="J60" s="61">
+        <v>27</v>
+      </c>
+      <c r="L60" s="5">
+        <v>59</v>
+      </c>
+      <c r="M60" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N60" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O60" s="25">
+        <v>8</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>4</v>
+      </c>
+      <c r="B61" s="46">
+        <v>28</v>
+      </c>
+      <c r="C61" s="47">
+        <v>29</v>
+      </c>
+      <c r="D61" s="62">
+        <v>30</v>
+      </c>
+      <c r="E61" s="48">
+        <v>31</v>
+      </c>
+      <c r="F61" s="47">
+        <v>32</v>
+      </c>
+      <c r="G61" s="63">
+        <v>33</v>
+      </c>
+      <c r="H61" s="47">
+        <v>34</v>
+      </c>
+      <c r="I61" s="47">
+        <v>35</v>
+      </c>
+      <c r="J61" s="64">
+        <v>36</v>
+      </c>
+      <c r="L61" s="5">
+        <v>60</v>
+      </c>
+      <c r="M61" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N61" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O61" s="25">
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>5</v>
+      </c>
+      <c r="B62" s="34">
+        <v>37</v>
+      </c>
+      <c r="C62" s="35">
+        <v>38</v>
+      </c>
+      <c r="D62" s="57">
+        <v>39</v>
+      </c>
+      <c r="E62" s="44">
+        <v>40</v>
+      </c>
+      <c r="F62" s="35">
+        <v>41</v>
+      </c>
+      <c r="G62" s="59">
+        <v>42</v>
+      </c>
+      <c r="H62" s="35">
+        <v>43</v>
+      </c>
+      <c r="I62" s="35">
+        <v>44</v>
+      </c>
+      <c r="J62" s="61">
+        <v>45</v>
+      </c>
+      <c r="L62" s="5">
+        <v>61</v>
+      </c>
+      <c r="M62" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N62" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O62" s="25">
+        <v>9</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>6</v>
+      </c>
+      <c r="B63" s="51">
+        <v>46</v>
+      </c>
+      <c r="C63" s="52">
+        <v>47</v>
+      </c>
+      <c r="D63" s="65">
+        <v>48</v>
+      </c>
+      <c r="E63" s="53">
+        <v>49</v>
+      </c>
+      <c r="F63" s="52">
+        <v>50</v>
+      </c>
+      <c r="G63" s="67">
+        <v>51</v>
+      </c>
+      <c r="H63" s="52">
+        <v>52</v>
+      </c>
+      <c r="I63" s="52">
+        <v>53</v>
+      </c>
+      <c r="J63" s="69">
+        <v>54</v>
+      </c>
+      <c r="L63" s="5">
+        <v>62</v>
+      </c>
+      <c r="M63" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N63" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O63" s="25">
+        <v>9</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>7</v>
+      </c>
+      <c r="B64" s="34">
+        <v>55</v>
+      </c>
+      <c r="C64" s="35">
+        <v>56</v>
+      </c>
+      <c r="D64" s="57">
+        <v>57</v>
+      </c>
+      <c r="E64" s="44">
+        <v>58</v>
+      </c>
+      <c r="F64" s="35">
+        <v>59</v>
+      </c>
+      <c r="G64" s="59">
+        <v>60</v>
+      </c>
+      <c r="H64" s="35">
+        <v>61</v>
+      </c>
+      <c r="I64" s="35">
+        <v>62</v>
+      </c>
+      <c r="J64" s="61">
+        <v>63</v>
+      </c>
+      <c r="L64" s="5">
+        <v>63</v>
+      </c>
+      <c r="M64" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N64" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O64" s="25">
+        <v>9</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T64" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>8</v>
+      </c>
+      <c r="B65" s="34">
+        <v>64</v>
+      </c>
+      <c r="C65" s="35">
+        <v>65</v>
+      </c>
+      <c r="D65" s="57">
+        <v>66</v>
+      </c>
+      <c r="E65" s="44">
+        <v>67</v>
+      </c>
+      <c r="F65" s="35">
+        <v>68</v>
+      </c>
+      <c r="G65" s="59">
+        <v>69</v>
+      </c>
+      <c r="H65" s="35">
+        <v>70</v>
+      </c>
+      <c r="I65" s="35">
+        <v>71</v>
+      </c>
+      <c r="J65" s="61">
+        <v>72</v>
+      </c>
+      <c r="L65" s="5">
+        <v>64</v>
+      </c>
+      <c r="M65" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="24">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O65" s="25">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S65" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T65" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22">
+        <v>9</v>
+      </c>
+      <c r="B66" s="37">
+        <v>73</v>
+      </c>
+      <c r="C66" s="38">
+        <v>74</v>
+      </c>
+      <c r="D66" s="66">
+        <v>75</v>
+      </c>
+      <c r="E66" s="45">
+        <v>76</v>
+      </c>
+      <c r="F66" s="38">
+        <v>77</v>
+      </c>
+      <c r="G66" s="68">
+        <v>78</v>
+      </c>
+      <c r="H66" s="38">
+        <v>79</v>
+      </c>
+      <c r="I66" s="38">
+        <v>80</v>
+      </c>
+      <c r="J66" s="70">
+        <v>81</v>
+      </c>
+      <c r="L66" s="5">
+        <v>65</v>
+      </c>
+      <c r="M66" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N66" s="24">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O66" s="25">
+        <v>7</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P82" si="9">QUOTIENT(M66-1,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T66" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L67" s="5">
+        <v>66</v>
+      </c>
+      <c r="M67" s="23">
+        <f t="shared" ref="M67:M82" si="10">MOD((L67-1),9)+1</f>
+        <v>3</v>
+      </c>
+      <c r="N67" s="24">
+        <f t="shared" ref="N67:N82" si="11">QUOTIENT((L67-1),9)+1</f>
+        <v>8</v>
+      </c>
+      <c r="O67" s="25">
+        <v>7</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67:Q82" si="12">QUOTIENT(N67-1,3)*3</f>
+        <v>6</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" ref="R67:R82" si="13">(P67+Q67)</f>
+        <v>6</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" ref="S67:S82" si="14">R67+1</f>
+        <v>7</v>
+      </c>
+      <c r="T67" s="1">
+        <f t="shared" ref="T67:T82" si="15">O67-S67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L68" s="5">
+        <v>67</v>
+      </c>
+      <c r="M68" s="23">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N68" s="24">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O68" s="25">
+        <v>8</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R68" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="S68" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T68" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L69" s="5">
+        <v>68</v>
+      </c>
+      <c r="M69" s="23">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N69" s="24">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O69" s="25">
+        <v>8</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R69" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="S69" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T69" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L70" s="5">
+        <v>69</v>
+      </c>
+      <c r="M70" s="23">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N70" s="24">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O70" s="25">
+        <v>8</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R70" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="S70" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T70" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L71" s="5">
+        <v>70</v>
+      </c>
+      <c r="M71" s="23">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="N71" s="24">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O71" s="25">
+        <v>9</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R71" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S71" s="1">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="T71" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L72" s="5">
+        <v>71</v>
+      </c>
+      <c r="M72" s="23">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="N72" s="24">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O72" s="25">
+        <v>9</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L73" s="5">
+        <v>72</v>
+      </c>
+      <c r="M73" s="23">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N73" s="24">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O73" s="25">
+        <v>9</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L74" s="5">
+        <v>73</v>
+      </c>
+      <c r="M74" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N74" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O74" s="25">
+        <v>7</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L75" s="5">
+        <v>74</v>
+      </c>
+      <c r="M75" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N75" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O75" s="25">
+        <v>7</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R75" s="4">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L76" s="5">
+        <v>75</v>
+      </c>
+      <c r="M76" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N76" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O76" s="25">
+        <v>7</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L77" s="5">
+        <v>76</v>
+      </c>
+      <c r="M77" s="23">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N77" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O77" s="25">
+        <v>8</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R77" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L78" s="5">
+        <v>77</v>
+      </c>
+      <c r="M78" s="23">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N78" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O78" s="25">
+        <v>8</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L79" s="5">
+        <v>78</v>
+      </c>
+      <c r="M79" s="23">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N79" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O79" s="25">
+        <v>8</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R79" s="4">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L80" s="5">
+        <v>79</v>
+      </c>
+      <c r="M80" s="23">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="N80" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O80" s="25">
+        <v>9</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L81" s="5">
+        <v>80</v>
+      </c>
+      <c r="M81" s="23">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="N81" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O81" s="25">
+        <v>9</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R81" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L82" s="5">
+        <v>81</v>
+      </c>
+      <c r="M82" s="23">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N82" s="24">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O82" s="25">
+        <v>9</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sudoku_Bitmask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889DB45-57EC-4F3B-B9E4-A9895F6E5F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAC96C-7AA8-48B4-B431-2B4FB37BC761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>X</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>0,0,8,3,0,0,9,0</t>
+  </si>
+  <si>
+    <t>1,4,7,28,31,34,55,58,61</t>
   </si>
 </sst>
 </file>
@@ -1372,26 +1375,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="37" width="2.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="2.88671875" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22">
         <v>1</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L12" s="5">
         <v>11</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>0</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>0</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <v>8</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>0</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>3</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <v>0</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>0</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>9</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <v>0</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L22" s="5">
         <v>21</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L23" s="5">
         <v>22</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22">
         <v>1</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>1</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>2</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>3</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>4</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>5</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>6</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>7</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>8</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22">
         <v>9</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L34" s="5">
         <v>33</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>1</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>2</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>3</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>4</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>5</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>6</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>7</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>8</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22">
         <v>9</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L44" s="5">
         <v>43</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L45" s="5">
         <v>44</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L46" s="5">
         <v>45</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L47" s="5">
         <v>46</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L48" s="5">
         <v>47</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L49" s="5">
         <v>48</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L50" s="5">
         <v>49</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L51" s="5">
         <v>50</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L52" s="5">
         <v>51</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L53" s="5">
         <v>52</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L54" s="5">
         <v>53</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L55" s="5">
         <v>54</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L56" s="5">
         <v>55</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="22">
         <v>1</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
         <v>1</v>
       </c>
@@ -4724,8 +4727,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
         <v>2</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
         <v>3</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <v>4</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
         <v>5</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <v>6</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
         <v>7</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
         <v>8</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="22">
         <v>9</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L67" s="5">
         <v>66</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L68" s="5">
         <v>67</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L69" s="5">
         <v>68</v>
       </c>
@@ -5361,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L70" s="5">
         <v>69</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L71" s="5">
         <v>70</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L72" s="5">
         <v>71</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L73" s="5">
         <v>72</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L74" s="5">
         <v>73</v>
       </c>
@@ -5541,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L75" s="5">
         <v>74</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L76" s="5">
         <v>75</v>
       </c>
@@ -5613,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L77" s="5">
         <v>76</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L78" s="5">
         <v>77</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L79" s="5">
         <v>78</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L80" s="5">
         <v>79</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L81" s="5">
         <v>80</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L82" s="5">
         <v>81</v>
       </c>
